--- a/Module A/Excel File Testing (BOQ file) Module A.xlsx
+++ b/Module A/Excel File Testing (BOQ file) Module A.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD9A277-09D0-42E3-9E96-43326964DB09}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e634caa88b79f40/Desktop/TestCases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D436E243-5A75-4A2A-B73E-9D4EACA4AC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27DF170-0863-42B5-B5D6-4065A8369A03}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tc" sheetId="1" r:id="rId1"/>
+    <sheet name="defect" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
-  <si>
-    <t>TC_ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+  <si>
+    <t>Test Case ID</t>
   </si>
   <si>
     <t>Module</t>
@@ -51,16 +57,19 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Pre-condition</t>
-  </si>
-  <si>
-    <t>Test-Steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
+    <t>Pre Condition</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
   </si>
   <si>
     <t>Remark</t>
@@ -72,7 +81,7 @@
     <t>TC_ID_01</t>
   </si>
   <si>
-    <t>Open Excel Sheet</t>
+    <t>BOQ Excel File</t>
   </si>
   <si>
     <t>Positive</t>
@@ -81,23 +90,25 @@
     <t>High</t>
   </si>
   <si>
-    <t>To verify BOQ excel sheet</t>
-  </si>
-  <si>
-    <t>To check that user is able to open BOQ excel sheet</t>
-  </si>
-  <si>
-    <t>User has valid BOQ excel file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Excel
-2. Open BOQ excel file </t>
-  </si>
-  <si>
-    <t>BOQ Excel file</t>
-  </si>
-  <si>
-    <t>User Open excel file successfully.</t>
+    <t>To verify BOQ excel file open</t>
+  </si>
+  <si>
+    <t>1.To check that user able to open BOQ excel file.</t>
+  </si>
+  <si>
+    <t>User has valid Excel file</t>
+  </si>
+  <si>
+    <t>1.Open Excel.        2.Open BOQ excel file on excel.</t>
+  </si>
+  <si>
+    <t>BOQ Excel file.</t>
+  </si>
+  <si>
+    <t>Excel file should open.</t>
+  </si>
+  <si>
+    <t>Excel file oepn successfully.</t>
   </si>
   <si>
     <t>Pass</t>
@@ -106,86 +117,85 @@
     <t>TC_ID_02</t>
   </si>
   <si>
-    <t>Bidder Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edit or change bidder name with valid values.</t>
-  </si>
-  <si>
-    <t>To Check that user is able to change in bidder name or edit bidder name</t>
-  </si>
-  <si>
-    <t>User has bidder name row on excel file</t>
-  </si>
-  <si>
-    <t>1. Open Excel sheet.
-2. double click on bidder name.3.Edit or change the bidder name with valid value.</t>
-  </si>
-  <si>
-    <t>User edit or change the bidder name successfully.</t>
+    <t>Bidder name</t>
+  </si>
+  <si>
+    <t>To verify edit bidder name with valid value.</t>
+  </si>
+  <si>
+    <t>To check thar user able to edit bidder name with valid value.</t>
+  </si>
+  <si>
+    <t>User has Excel file &amp; Bidder name row on excel file.</t>
+  </si>
+  <si>
+    <t>1.Open Excel          2.Open BOQ exel file. 3.Select bidder name and edit bidder name.</t>
+  </si>
+  <si>
+    <t>Bidder name should edit.</t>
+  </si>
+  <si>
+    <t>User edit bidder name successfully.</t>
   </si>
   <si>
     <t>TC_ID_03</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edit or change bidder name with invalid values.</t>
-  </si>
-  <si>
-    <t>To Check that user is able to edit or change bidder name with invalid values.</t>
-  </si>
-  <si>
-    <t>1. Open Excel file
-2. Double click on bidder name
-3. Edit Or Change bidder name with invalid values.</t>
-  </si>
-  <si>
-    <t>User can not edit or change bidder name with invalid values.</t>
+    <t>To verify change entire bidder name with valid value.</t>
+  </si>
+  <si>
+    <t>To check that user able to change entire bidder name with valid value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open Excel         2.Open BOQ excel file.                           3.Select bidder name and change entire name .     </t>
+  </si>
+  <si>
+    <t>Entire bidder name should be changed.</t>
+  </si>
+  <si>
+    <t>User change entire bidder name successfully.</t>
   </si>
   <si>
     <t>TC_ID_04</t>
   </si>
   <si>
-    <t>Name Of Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edit or change name of work with valid values.</t>
-  </si>
-  <si>
-    <t>To Check that  user is able to edit or change name of work with valid value.</t>
-  </si>
-  <si>
-    <t>User has name of work row on excel file</t>
-  </si>
-  <si>
-    <t>1.Open Excel file
-2. Double click on name of work.
-3. Change or edit name of work with valid values.</t>
-  </si>
-  <si>
-    <t>User can edit or change name of work with valid values.</t>
+    <t>Name of work</t>
+  </si>
+  <si>
+    <t>To verify edit name of work with valid value.</t>
+  </si>
+  <si>
+    <t>To check that user able to edit name of work with valid value.</t>
+  </si>
+  <si>
+    <t>User has Excel file &amp; Name of work row on excel file.</t>
+  </si>
+  <si>
+    <t>1.Open Excel.        2.Open BOQ Excel file.                                              3.Select Name of work row and edit.</t>
+  </si>
+  <si>
+    <t>Name of work row should be edit.</t>
+  </si>
+  <si>
+    <t>User edit name of work row successfully.</t>
   </si>
   <si>
     <t>TC_ID_05</t>
   </si>
   <si>
-    <t xml:space="preserve"> Edit or change name of work with invalid values.</t>
-  </si>
-  <si>
-    <t>To Check that  user is able to edit or change name of work with invalid value.</t>
-  </si>
-  <si>
-    <t>1. Open Excel file
-2. Double click on name of work
-3. Edit Or Change name of work with invalid values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOQ Excel file</t>
-  </si>
-  <si>
-    <t>User can not edit or change name of work with invalid values.</t>
+    <t>To verify entire name of work change with valid value.</t>
+  </si>
+  <si>
+    <t>To check that user able to change name of work with valid value.</t>
+  </si>
+  <si>
+    <t>1.Open Excel.                  2.Open BOQ excel file.                          3.Select name of work and change.</t>
+  </si>
+  <si>
+    <t>Name of work row should be change.</t>
+  </si>
+  <si>
+    <t>User change name of work successfully.</t>
   </si>
   <si>
     <t>TC_ID_06</t>
@@ -194,57 +204,92 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve"> Edit percentage value</t>
-  </si>
-  <si>
-    <t>To check that user is able to change or edit percentage value</t>
-  </si>
-  <si>
-    <t>User has percentage column row on excel file</t>
-  </si>
-  <si>
-    <t>1. Open excel file
-2. double click on percentage value
-3. change or edit percentage value</t>
-  </si>
-  <si>
-    <t>User can edit or change percentage value successfully.</t>
+    <t>To verify edit percentage value.</t>
+  </si>
+  <si>
+    <t>To check that user able to edit percentage value.</t>
+  </si>
+  <si>
+    <t>User has Excel file &amp; percentage row or column</t>
+  </si>
+  <si>
+    <t>1.Open Excel.                     2.Open BOQ excel file.                                   3.Select percentage row or column and edit percentage value.</t>
+  </si>
+  <si>
+    <t>Percentage value should be edit.</t>
+  </si>
+  <si>
+    <t>Percentage value edit successfully.</t>
   </si>
   <si>
     <t>TC_ID_07</t>
   </si>
   <si>
+    <t>To verify entire percentage value can change.</t>
+  </si>
+  <si>
+    <t>To check that user is able to change entire percentage value.</t>
+  </si>
+  <si>
+    <t>1.Open excel.         2.Open BOQ excel file. 3.Select percentage row or column and change entire percentage value.</t>
+  </si>
+  <si>
+    <t>Entire percentage value should be change.</t>
+  </si>
+  <si>
+    <t>Entire percentages value change successfully.</t>
+  </si>
+  <si>
+    <t>TC_ID_08</t>
+  </si>
+  <si>
     <t>Select</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Change remark excess or less</t>
-  </si>
-  <si>
-    <t>To Check that user is able to change the remark excess or less</t>
-  </si>
-  <si>
-    <t>User has option to change the remark excess or less</t>
-  </si>
-  <si>
-    <t>1. Open excel file
-2. Click on arrow button avilable on quated rate in figures row
-3. change the excess to less or less to excess.</t>
-  </si>
-  <si>
-    <t>User can change remark excess to less or less to excess</t>
+    <t>To verify change percentage remark excess to less</t>
+  </si>
+  <si>
+    <t>To check that user is able to change percentage remark excess to less</t>
+  </si>
+  <si>
+    <t>User has excel file &amp; select option to change percentage remark.</t>
+  </si>
+  <si>
+    <t>1. Open excel.       2.Open BOQ excel file.                                 3.Select arro option and change percentage remark excess to less.</t>
+  </si>
+  <si>
+    <t>Percentage remark should be change.</t>
+  </si>
+  <si>
+    <t>Percentage remark changed successfully.</t>
+  </si>
+  <si>
+    <t>TC_ID_09</t>
+  </si>
+  <si>
+    <t>To verify change percentage remark less to excess.</t>
+  </si>
+  <si>
+    <t>To check that user is able to change percentage less to excess.</t>
+  </si>
+  <si>
+    <t>1. Open excel.       2.Open BOQ excel file.                                 3.Select arro option and change percentage remark less to excess.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,10 +303,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -275,13 +320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,50 +341,49 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,312 +720,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="101.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:13" ht="45">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="60">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="201.75">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:13" ht="75">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="188.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:13" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="75">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="188.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="8" spans="1:13" ht="90">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="174">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="9" spans="1:13" ht="90">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="144.75">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="10" spans="1:13" ht="90">
+      <c r="A10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="245.25">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE8B6E2-0959-4485-A91E-E9C9593C2FB7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>